--- a/Excel/Pasta1.xlsx
+++ b/Excel/Pasta1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="49">
   <si>
     <t>PT</t>
   </si>
@@ -502,29 +502,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AD487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -550,1489 +551,7295 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A65" si="0">SUBSTITUTE(CONCATENATE(B2,C2)," ","_")</f>
+        <v>Acre2003</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2003</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Alagoas2003</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2003</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Amapá2003</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2003</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Amazonas2003</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2003</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bahia2003</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2003</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ceará2003</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2003</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Distrito_Federal2003</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2003</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Espírito_Santo2003</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2003</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Goiás2003</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2003</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Maranhão2003</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2003</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mato_Grosso2003</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2003</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Mato_Grosso_do_Sul2003</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2003</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>Minas_Gerais2003</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2003</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>Pará2003</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2003</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paraíba2003</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2003</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>Paraná2003</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2003</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>Pernambuco2003</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>2003</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>Piauí2003</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2003</v>
       </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>Rio_de_Janeiro2003</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2003</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>Rio_Grande_do_Norte2003</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2003</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>Rio_Grande_do_Sul2003</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2003</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>Rondônia2003</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>2003</v>
       </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>Roraima2003</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2003</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>Santa_Catarina2003</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2003</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>São_Paulo2003</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>2003</v>
       </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>Sergipe2003</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>2003</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>Tocantins2003</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>2003</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>Acre2004</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="C29">
+        <v>2004</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>Alagoas2004</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2004</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>Amapá2004</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>2004</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>Amazonas2004</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>2004</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>Bahia2004</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>2004</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>Ceará2004</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>2004</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>Distrito_Federal2004</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>2004</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>Espírito_Santo2004</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>2004</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>Goiás2004</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>2004</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>Maranhão2004</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>2004</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>Mato_Grosso2004</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>2004</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>Mato_Grosso_do_Sul2004</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>2004</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>Minas_Gerais2004</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>2004</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>Pará2004</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>2004</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>Paraíba2004</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>2004</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>Paraná2004</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>2004</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>Pernambuco2004</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>2004</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>Piauí2004</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>2004</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>Rio_de_Janeiro2004</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>2004</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>Rio_Grande_do_Norte2004</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>2004</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>Rio_Grande_do_Sul2004</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>2004</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>Rondônia2004</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>2004</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>Roraima2004</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>2004</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>Santa_Catarina2004</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>2004</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>São_Paulo2004</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>2004</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>Sergipe2004</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>2004</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>Tocantins2004</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>2004</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>Acre2005</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2005</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>Alagoas2005</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>2005</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>Amapá2005</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>2005</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>Amazonas2005</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>2005</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>Bahia2005</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>2005</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>Ceará2005</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>2005</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>Distrito_Federal2005</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>2005</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>Espírito_Santo2005</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>2005</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>Goiás2005</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>2005</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>Maranhão2005</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>2005</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" ref="A66:A129" si="1">SUBSTITUTE(CONCATENATE(B66,C66)," ","_")</f>
+        <v>Mato_Grosso2005</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>2005</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="1"/>
+        <v>Mato_Grosso_do_Sul2005</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>2005</v>
+      </c>
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>Minas_Gerais2005</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>2005</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>Pará2005</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>2005</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>Paraíba2005</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>2005</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v>Paraná2005</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>2005</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v>Pernambuco2005</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>2005</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v>Piauí2005</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>2005</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v>Rio_de_Janeiro2005</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>2005</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v>Rio_Grande_do_Norte2005</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>2005</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="1"/>
+        <v>Rio_Grande_do_Sul2005</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76">
+        <v>2005</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="1"/>
+        <v>Rondônia2005</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>2005</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="1"/>
+        <v>Roraima2005</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78">
+        <v>2005</v>
+      </c>
+      <c r="D78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v>Santa_Catarina2005</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>2005</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v>São_Paulo2005</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>2005</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>Sergipe2005</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81">
+        <v>2005</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>Tocantins2005</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82">
+        <v>2005</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>Acre2006</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>2006</v>
+      </c>
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>Alagoas2006</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>2006</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v>Amapá2006</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>2006</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v>Amazonas2006</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>2006</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v>Bahia2006</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>2006</v>
+      </c>
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v>Ceará2006</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>2006</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v>Distrito_Federal2006</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>2006</v>
+      </c>
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v>Espírito_Santo2006</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>2006</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v>Goiás2006</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>2006</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="1"/>
+        <v>Maranhão2006</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>2006</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="1"/>
+        <v>Mato_Grosso2006</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>2006</v>
+      </c>
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="1"/>
+        <v>Mato_Grosso_do_Sul2006</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>2006</v>
+      </c>
+      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="1"/>
+        <v>Minas_Gerais2006</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>2006</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="1"/>
+        <v>Pará2006</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <v>2006</v>
+      </c>
+      <c r="D96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="1"/>
+        <v>Paraíba2006</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>2006</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="1"/>
+        <v>Paraná2006</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>2006</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="1"/>
+        <v>Pernambuco2006</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99">
+        <v>2006</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="1"/>
+        <v>Piauí2006</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>2006</v>
+      </c>
+      <c r="D100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="1"/>
+        <v>Rio_de_Janeiro2006</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>2006</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="1"/>
+        <v>Rio_Grande_do_Norte2006</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102">
+        <v>2006</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="1"/>
+        <v>Rio_Grande_do_Sul2006</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>2006</v>
+      </c>
+      <c r="D103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="1"/>
+        <v>Rondônia2006</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>2006</v>
+      </c>
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" si="1"/>
+        <v>Roraima2006</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>2006</v>
+      </c>
+      <c r="D105" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="1"/>
+        <v>Santa_Catarina2006</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>2006</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="1"/>
+        <v>São_Paulo2006</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107">
+        <v>2006</v>
+      </c>
+      <c r="D107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="1"/>
+        <v>Sergipe2006</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>2006</v>
+      </c>
+      <c r="D108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="1"/>
+        <v>Tocantins2006</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109">
+        <v>2006</v>
+      </c>
+      <c r="D109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="1"/>
+        <v>Acre2007</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110">
         <v>2007</v>
       </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="D110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="1"/>
+        <v>Alagoas2007</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30">
+      <c r="C111">
         <v>2007</v>
       </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="1"/>
+        <v>Amapá2007</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="C112">
         <v>2007</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D112" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="1"/>
+        <v>Amazonas2007</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32">
+      <c r="C113">
         <v>2007</v>
       </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="D113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="1"/>
+        <v>Bahia2007</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33">
+      <c r="C114">
         <v>2007</v>
       </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="1"/>
+        <v>Ceará2007</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34">
+      <c r="C115">
         <v>2007</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D115" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="1"/>
+        <v>Distrito_Federal2007</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B35">
+      <c r="C116">
         <v>2007</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D116" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f t="shared" si="1"/>
+        <v>Espírito_Santo2007</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36">
+      <c r="C117">
         <v>2007</v>
       </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f t="shared" si="1"/>
+        <v>Goiás2007</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B37">
+      <c r="C118">
         <v>2007</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" si="1"/>
+        <v>Maranhão2007</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38">
+      <c r="C119">
         <v>2007</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D119" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f t="shared" si="1"/>
+        <v>Mato_Grosso2007</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B39">
+      <c r="C120">
         <v>2007</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D120" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f t="shared" si="1"/>
+        <v>Mato_Grosso_do_Sul2007</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B40">
+      <c r="C121">
         <v>2007</v>
       </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f t="shared" si="1"/>
+        <v>Minas_Gerais2007</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B41">
+      <c r="C122">
         <v>2007</v>
       </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="D122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f t="shared" si="1"/>
+        <v>Pará2007</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B42">
+      <c r="C123">
         <v>2007</v>
       </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="D123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" si="1"/>
+        <v>Paraíba2007</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43">
+      <c r="C124">
         <v>2007</v>
       </c>
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="1"/>
+        <v>Paraná2007</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B44">
+      <c r="C125">
         <v>2007</v>
       </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="D125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="1"/>
+        <v>Pernambuco2007</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B45">
+      <c r="C126">
         <v>2007</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D126" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="1"/>
+        <v>Piauí2007</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46">
+      <c r="C127">
         <v>2007</v>
       </c>
-      <c r="C46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="1"/>
+        <v>Rio_de_Janeiro2007</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B47">
+      <c r="C128">
         <v>2007</v>
       </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="1"/>
+        <v>Rio_Grande_do_Norte2007</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B48">
+      <c r="C129">
         <v>2007</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D129" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" ref="A130:A193" si="2">SUBSTITUTE(CONCATENATE(B130,C130)," ","_")</f>
+        <v>Rio_Grande_do_Sul2007</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B49">
+      <c r="C130">
         <v>2007</v>
       </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="D130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="2"/>
+        <v>Rondônia2007</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B50">
+      <c r="C131">
         <v>2007</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D131" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" si="2"/>
+        <v>Roraima2007</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B51">
+      <c r="C132">
         <v>2007</v>
       </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="D132" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="2"/>
+        <v>Santa_Catarina2007</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B52">
+      <c r="C133">
         <v>2007</v>
       </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="D133" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="2"/>
+        <v>São_Paulo2007</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B53">
+      <c r="C134">
         <v>2007</v>
       </c>
-      <c r="C53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="D134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="2"/>
+        <v>Sergipe2007</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B54">
+      <c r="C135">
         <v>2007</v>
       </c>
-      <c r="C54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="2"/>
+        <v>Tocantins2007</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B55">
+      <c r="C136">
         <v>2007</v>
       </c>
-      <c r="C55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="D136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="2"/>
+        <v>Acre2008</v>
+      </c>
+      <c r="B137" t="s">
         <v>2</v>
       </c>
-      <c r="B56">
+      <c r="C137">
+        <v>2008</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" si="2"/>
+        <v>Alagoas2008</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>2008</v>
+      </c>
+      <c r="D138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="2"/>
+        <v>Amapá2008</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>2008</v>
+      </c>
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="2"/>
+        <v>Amazonas2008</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>2008</v>
+      </c>
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="2"/>
+        <v>Bahia2008</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>2008</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f t="shared" si="2"/>
+        <v>Ceará2008</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>2008</v>
+      </c>
+      <c r="D142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f t="shared" si="2"/>
+        <v>Distrito_Federal2008</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>2008</v>
+      </c>
+      <c r="D143" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f t="shared" si="2"/>
+        <v>Espírito_Santo2008</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>2008</v>
+      </c>
+      <c r="D144" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="2"/>
+        <v>Goiás2008</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>2008</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="2"/>
+        <v>Maranhão2008</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>2008</v>
+      </c>
+      <c r="D146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="2"/>
+        <v>Mato_Grosso2008</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147">
+        <v>2008</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f t="shared" si="2"/>
+        <v>Mato_Grosso_do_Sul2008</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>2008</v>
+      </c>
+      <c r="D148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f t="shared" si="2"/>
+        <v>Minas_Gerais2008</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149">
+        <v>2008</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f t="shared" si="2"/>
+        <v>Pará2008</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150">
+        <v>2008</v>
+      </c>
+      <c r="D150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f t="shared" si="2"/>
+        <v>Paraíba2008</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151">
+        <v>2008</v>
+      </c>
+      <c r="D151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f t="shared" si="2"/>
+        <v>Paraná2008</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152">
+        <v>2008</v>
+      </c>
+      <c r="D152" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f t="shared" si="2"/>
+        <v>Pernambuco2008</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153">
+        <v>2008</v>
+      </c>
+      <c r="D153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f t="shared" si="2"/>
+        <v>Piauí2008</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154">
+        <v>2008</v>
+      </c>
+      <c r="D154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f t="shared" si="2"/>
+        <v>Rio_de_Janeiro2008</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155">
+        <v>2008</v>
+      </c>
+      <c r="D155" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f t="shared" si="2"/>
+        <v>Rio_Grande_do_Norte2008</v>
+      </c>
+      <c r="B156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156">
+        <v>2008</v>
+      </c>
+      <c r="D156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f t="shared" si="2"/>
+        <v>Rio_Grande_do_Sul2008</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157">
+        <v>2008</v>
+      </c>
+      <c r="D157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f t="shared" si="2"/>
+        <v>Rondônia2008</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158">
+        <v>2008</v>
+      </c>
+      <c r="D158" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f t="shared" si="2"/>
+        <v>Roraima2008</v>
+      </c>
+      <c r="B159" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159">
+        <v>2008</v>
+      </c>
+      <c r="D159" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f t="shared" si="2"/>
+        <v>Santa_Catarina2008</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160">
+        <v>2008</v>
+      </c>
+      <c r="D160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f t="shared" si="2"/>
+        <v>São_Paulo2008</v>
+      </c>
+      <c r="B161" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161">
+        <v>2008</v>
+      </c>
+      <c r="D161" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f t="shared" si="2"/>
+        <v>Sergipe2008</v>
+      </c>
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162">
+        <v>2008</v>
+      </c>
+      <c r="D162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f t="shared" si="2"/>
+        <v>Tocantins2008</v>
+      </c>
+      <c r="B163" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163">
+        <v>2008</v>
+      </c>
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f t="shared" si="2"/>
+        <v>Acre2009</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>2009</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f t="shared" si="2"/>
+        <v>Alagoas2009</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>2009</v>
+      </c>
+      <c r="D165" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f t="shared" si="2"/>
+        <v>Amapá2009</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>2009</v>
+      </c>
+      <c r="D166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f t="shared" si="2"/>
+        <v>Amazonas2009</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>2009</v>
+      </c>
+      <c r="D167" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f t="shared" si="2"/>
+        <v>Bahia2009</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>2009</v>
+      </c>
+      <c r="D168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f t="shared" si="2"/>
+        <v>Ceará2009</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>2009</v>
+      </c>
+      <c r="D169" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f t="shared" si="2"/>
+        <v>Distrito_Federal2009</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <v>2009</v>
+      </c>
+      <c r="D170" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f t="shared" si="2"/>
+        <v>Espírito_Santo2009</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171">
+        <v>2009</v>
+      </c>
+      <c r="D171" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f t="shared" si="2"/>
+        <v>Goiás2009</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172">
+        <v>2009</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f t="shared" si="2"/>
+        <v>Maranhão2009</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <v>2009</v>
+      </c>
+      <c r="D173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f t="shared" si="2"/>
+        <v>Mato_Grosso2009</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <v>2009</v>
+      </c>
+      <c r="D174" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f t="shared" si="2"/>
+        <v>Mato_Grosso_do_Sul2009</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>2009</v>
+      </c>
+      <c r="D175" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f t="shared" si="2"/>
+        <v>Minas_Gerais2009</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176">
+        <v>2009</v>
+      </c>
+      <c r="D176" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f t="shared" si="2"/>
+        <v>Pará2009</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177">
+        <v>2009</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f t="shared" si="2"/>
+        <v>Paraíba2009</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178">
+        <v>2009</v>
+      </c>
+      <c r="D178" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f t="shared" si="2"/>
+        <v>Paraná2009</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179">
+        <v>2009</v>
+      </c>
+      <c r="D179" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f t="shared" si="2"/>
+        <v>Pernambuco2009</v>
+      </c>
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180">
+        <v>2009</v>
+      </c>
+      <c r="D180" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f t="shared" si="2"/>
+        <v>Piauí2009</v>
+      </c>
+      <c r="B181" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181">
+        <v>2009</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f t="shared" si="2"/>
+        <v>Rio_de_Janeiro2009</v>
+      </c>
+      <c r="B182" t="s">
+        <v>20</v>
+      </c>
+      <c r="C182">
+        <v>2009</v>
+      </c>
+      <c r="D182" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f t="shared" si="2"/>
+        <v>Rio_Grande_do_Norte2009</v>
+      </c>
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183">
+        <v>2009</v>
+      </c>
+      <c r="D183" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f t="shared" si="2"/>
+        <v>Rio_Grande_do_Sul2009</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184">
+        <v>2009</v>
+      </c>
+      <c r="D184" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f t="shared" si="2"/>
+        <v>Rondônia2009</v>
+      </c>
+      <c r="B185" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185">
+        <v>2009</v>
+      </c>
+      <c r="D185" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f t="shared" si="2"/>
+        <v>Roraima2009</v>
+      </c>
+      <c r="B186" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186">
+        <v>2009</v>
+      </c>
+      <c r="D186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f t="shared" si="2"/>
+        <v>Santa_Catarina2009</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187">
+        <v>2009</v>
+      </c>
+      <c r="D187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f t="shared" si="2"/>
+        <v>São_Paulo2009</v>
+      </c>
+      <c r="B188" t="s">
+        <v>26</v>
+      </c>
+      <c r="C188">
+        <v>2009</v>
+      </c>
+      <c r="D188" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f t="shared" si="2"/>
+        <v>Sergipe2009</v>
+      </c>
+      <c r="B189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189">
+        <v>2009</v>
+      </c>
+      <c r="D189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f t="shared" si="2"/>
+        <v>Tocantins2009</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190">
+        <v>2009</v>
+      </c>
+      <c r="D190" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f t="shared" si="2"/>
+        <v>Acre2010</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>2010</v>
+      </c>
+      <c r="D191" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f t="shared" si="2"/>
+        <v>Alagoas2010</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>2010</v>
+      </c>
+      <c r="D192" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f t="shared" si="2"/>
+        <v>Amapá2010</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>2010</v>
+      </c>
+      <c r="D193" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f t="shared" ref="A194:A257" si="3">SUBSTITUTE(CONCATENATE(B194,C194)," ","_")</f>
+        <v>Amazonas2010</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>2010</v>
+      </c>
+      <c r="D194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f t="shared" si="3"/>
+        <v>Bahia2010</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>2010</v>
+      </c>
+      <c r="D195" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f t="shared" si="3"/>
+        <v>Ceará2010</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>2010</v>
+      </c>
+      <c r="D196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f t="shared" si="3"/>
+        <v>Distrito_Federal2010</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>2010</v>
+      </c>
+      <c r="D197" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f t="shared" si="3"/>
+        <v>Espírito_Santo2010</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198">
+        <v>2010</v>
+      </c>
+      <c r="D198" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f t="shared" si="3"/>
+        <v>Goiás2010</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>2010</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f t="shared" si="3"/>
+        <v>Maranhão2010</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200">
+        <v>2010</v>
+      </c>
+      <c r="D200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
+        <f t="shared" si="3"/>
+        <v>Mato_Grosso2010</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201">
+        <v>2010</v>
+      </c>
+      <c r="D201" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
+        <f t="shared" si="3"/>
+        <v>Mato_Grosso_do_Sul2010</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202">
+        <v>2010</v>
+      </c>
+      <c r="D202" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f t="shared" si="3"/>
+        <v>Minas_Gerais2010</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203">
+        <v>2010</v>
+      </c>
+      <c r="D203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
+        <f t="shared" si="3"/>
+        <v>Pará2010</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>2010</v>
+      </c>
+      <c r="D204" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f t="shared" si="3"/>
+        <v>Paraíba2010</v>
+      </c>
+      <c r="B205" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205">
+        <v>2010</v>
+      </c>
+      <c r="D205" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
+        <f t="shared" si="3"/>
+        <v>Paraná2010</v>
+      </c>
+      <c r="B206" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206">
+        <v>2010</v>
+      </c>
+      <c r="D206" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f t="shared" si="3"/>
+        <v>Pernambuco2010</v>
+      </c>
+      <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207">
+        <v>2010</v>
+      </c>
+      <c r="D207" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f t="shared" si="3"/>
+        <v>Piauí2010</v>
+      </c>
+      <c r="B208" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208">
+        <v>2010</v>
+      </c>
+      <c r="D208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f t="shared" si="3"/>
+        <v>Rio_de_Janeiro2010</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209">
+        <v>2010</v>
+      </c>
+      <c r="D209" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f t="shared" si="3"/>
+        <v>Rio_Grande_do_Norte2010</v>
+      </c>
+      <c r="B210" t="s">
+        <v>21</v>
+      </c>
+      <c r="C210">
+        <v>2010</v>
+      </c>
+      <c r="D210" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f t="shared" si="3"/>
+        <v>Rio_Grande_do_Sul2010</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211">
+        <v>2010</v>
+      </c>
+      <c r="D211" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f t="shared" si="3"/>
+        <v>Rondônia2010</v>
+      </c>
+      <c r="B212" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212">
+        <v>2010</v>
+      </c>
+      <c r="D212" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f t="shared" si="3"/>
+        <v>Roraima2010</v>
+      </c>
+      <c r="B213" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213">
+        <v>2010</v>
+      </c>
+      <c r="D213" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f t="shared" si="3"/>
+        <v>Santa_Catarina2010</v>
+      </c>
+      <c r="B214" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214">
+        <v>2010</v>
+      </c>
+      <c r="D214" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f t="shared" si="3"/>
+        <v>São_Paulo2010</v>
+      </c>
+      <c r="B215" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215">
+        <v>2010</v>
+      </c>
+      <c r="D215" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f t="shared" si="3"/>
+        <v>Sergipe2010</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216">
+        <v>2010</v>
+      </c>
+      <c r="D216" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f t="shared" si="3"/>
+        <v>Tocantins2010</v>
+      </c>
+      <c r="B217" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217">
+        <v>2010</v>
+      </c>
+      <c r="D217" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f t="shared" si="3"/>
+        <v>Acre2011</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218">
         <v>2011</v>
       </c>
-      <c r="C56" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="D218" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f t="shared" si="3"/>
+        <v>Alagoas2011</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B57">
+      <c r="C219">
         <v>2011</v>
       </c>
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="D219" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f t="shared" si="3"/>
+        <v>Amapá2011</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B58">
+      <c r="C220">
         <v>2011</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D220" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
+        <f t="shared" si="3"/>
+        <v>Amazonas2011</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B59">
+      <c r="C221">
         <v>2011</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D221" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
+        <f t="shared" si="3"/>
+        <v>Bahia2011</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B60">
+      <c r="C222">
         <v>2011</v>
       </c>
-      <c r="C60" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="D222" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
+        <f t="shared" si="3"/>
+        <v>Ceará2011</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B61">
+      <c r="C223">
         <v>2011</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D223" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
+        <f t="shared" si="3"/>
+        <v>Distrito_Federal2011</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B62">
+      <c r="C224">
         <v>2011</v>
       </c>
-      <c r="C62" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="D224" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
+        <f t="shared" si="3"/>
+        <v>Espírito_Santo2011</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B63">
+      <c r="C225">
         <v>2011</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D225" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
+        <f t="shared" si="3"/>
+        <v>Goiás2011</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B64">
+      <c r="C226">
         <v>2011</v>
       </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="D226" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
+        <f t="shared" si="3"/>
+        <v>Maranhão2011</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B65">
+      <c r="C227">
         <v>2011</v>
       </c>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="D227" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
+        <f t="shared" si="3"/>
+        <v>Mato_Grosso2011</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B66">
+      <c r="C228">
         <v>2011</v>
       </c>
-      <c r="C66" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="D228" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
+        <f t="shared" si="3"/>
+        <v>Mato_Grosso_do_Sul2011</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B67">
+      <c r="C229">
         <v>2011</v>
       </c>
-      <c r="C67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="D229" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
+        <f t="shared" si="3"/>
+        <v>Minas_Gerais2011</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B68">
+      <c r="C230">
         <v>2011</v>
       </c>
-      <c r="C68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="D230" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
+        <f t="shared" si="3"/>
+        <v>Pará2011</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B69">
+      <c r="C231">
         <v>2011</v>
       </c>
-      <c r="C69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="D231" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
+        <f t="shared" si="3"/>
+        <v>Paraíba2011</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B70">
+      <c r="C232">
         <v>2011</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D232" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
+        <f t="shared" si="3"/>
+        <v>Paraná2011</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B71">
+      <c r="C233">
         <v>2011</v>
       </c>
-      <c r="C71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="D233" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
+        <f t="shared" si="3"/>
+        <v>Pernambuco2011</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B72">
+      <c r="C234">
         <v>2011</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D234" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
+        <f t="shared" si="3"/>
+        <v>Piauí2011</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B73">
+      <c r="C235">
         <v>2011</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D235" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
+        <f t="shared" si="3"/>
+        <v>Rio_de_Janeiro2011</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B74">
+      <c r="C236">
         <v>2011</v>
       </c>
-      <c r="C74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="D236" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="str">
+        <f t="shared" si="3"/>
+        <v>Rio_Grande_do_Norte2011</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B75">
+      <c r="C237">
         <v>2011</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D237" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
+        <f t="shared" si="3"/>
+        <v>Rio_Grande_do_Sul2011</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B76">
+      <c r="C238">
         <v>2011</v>
       </c>
-      <c r="C76" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="D238" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
+        <f t="shared" si="3"/>
+        <v>Rondônia2011</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B77">
+      <c r="C239">
         <v>2011</v>
       </c>
-      <c r="C77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="D239" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
+        <f t="shared" si="3"/>
+        <v>Roraima2011</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B78">
+      <c r="C240">
         <v>2011</v>
       </c>
-      <c r="C78" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="D240" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
+        <f t="shared" si="3"/>
+        <v>Santa_Catarina2011</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B79">
+      <c r="C241">
         <v>2011</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D241" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
+        <f t="shared" si="3"/>
+        <v>São_Paulo2011</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B80">
+      <c r="C242">
         <v>2011</v>
       </c>
-      <c r="C80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="D242" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
+        <f t="shared" si="3"/>
+        <v>Sergipe2011</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B81">
+      <c r="C243">
         <v>2011</v>
       </c>
-      <c r="C81" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="D243" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f t="shared" si="3"/>
+        <v>Tocantins2011</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B82">
+      <c r="C244">
         <v>2011</v>
       </c>
-      <c r="C82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="D244" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f t="shared" si="3"/>
+        <v>Acre2012</v>
+      </c>
+      <c r="B245" t="s">
         <v>2</v>
       </c>
-      <c r="B83">
+      <c r="C245">
+        <v>2012</v>
+      </c>
+      <c r="D245" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
+        <f t="shared" si="3"/>
+        <v>Alagoas2012</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>2012</v>
+      </c>
+      <c r="D246" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
+        <f t="shared" si="3"/>
+        <v>Amapá2012</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>2012</v>
+      </c>
+      <c r="D247" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
+        <f t="shared" si="3"/>
+        <v>Amazonas2012</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>2012</v>
+      </c>
+      <c r="D248" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
+        <f t="shared" si="3"/>
+        <v>Bahia2012</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>2012</v>
+      </c>
+      <c r="D249" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f t="shared" si="3"/>
+        <v>Ceará2012</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250">
+        <v>2012</v>
+      </c>
+      <c r="D250" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f t="shared" si="3"/>
+        <v>Distrito_Federal2012</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251">
+        <v>2012</v>
+      </c>
+      <c r="D251" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
+        <f t="shared" si="3"/>
+        <v>Espírito_Santo2012</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252">
+        <v>2012</v>
+      </c>
+      <c r="D252" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
+        <f t="shared" si="3"/>
+        <v>Goiás2012</v>
+      </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253">
+        <v>2012</v>
+      </c>
+      <c r="D253" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
+        <f t="shared" si="3"/>
+        <v>Maranhão2012</v>
+      </c>
+      <c r="B254" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254">
+        <v>2012</v>
+      </c>
+      <c r="D254" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
+        <f t="shared" si="3"/>
+        <v>Mato_Grosso2012</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255">
+        <v>2012</v>
+      </c>
+      <c r="D255" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
+        <f t="shared" si="3"/>
+        <v>Mato_Grosso_do_Sul2012</v>
+      </c>
+      <c r="B256" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256">
+        <v>2012</v>
+      </c>
+      <c r="D256" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
+        <f t="shared" si="3"/>
+        <v>Minas_Gerais2012</v>
+      </c>
+      <c r="B257" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257">
+        <v>2012</v>
+      </c>
+      <c r="D257" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
+        <f t="shared" ref="A258:A321" si="4">SUBSTITUTE(CONCATENATE(B258,C258)," ","_")</f>
+        <v>Pará2012</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258">
+        <v>2012</v>
+      </c>
+      <c r="D258" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
+        <f t="shared" si="4"/>
+        <v>Paraíba2012</v>
+      </c>
+      <c r="B259" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259">
+        <v>2012</v>
+      </c>
+      <c r="D259" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
+        <f t="shared" si="4"/>
+        <v>Paraná2012</v>
+      </c>
+      <c r="B260" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260">
+        <v>2012</v>
+      </c>
+      <c r="D260" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
+        <f t="shared" si="4"/>
+        <v>Pernambuco2012</v>
+      </c>
+      <c r="B261" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261">
+        <v>2012</v>
+      </c>
+      <c r="D261" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
+        <f t="shared" si="4"/>
+        <v>Piauí2012</v>
+      </c>
+      <c r="B262" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262">
+        <v>2012</v>
+      </c>
+      <c r="D262" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
+        <f t="shared" si="4"/>
+        <v>Rio_de_Janeiro2012</v>
+      </c>
+      <c r="B263" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263">
+        <v>2012</v>
+      </c>
+      <c r="D263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
+        <f t="shared" si="4"/>
+        <v>Rio_Grande_do_Norte2012</v>
+      </c>
+      <c r="B264" t="s">
+        <v>21</v>
+      </c>
+      <c r="C264">
+        <v>2012</v>
+      </c>
+      <c r="D264" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
+        <f t="shared" si="4"/>
+        <v>Rio_Grande_do_Sul2012</v>
+      </c>
+      <c r="B265" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265">
+        <v>2012</v>
+      </c>
+      <c r="D265" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
+        <f t="shared" si="4"/>
+        <v>Rondônia2012</v>
+      </c>
+      <c r="B266" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266">
+        <v>2012</v>
+      </c>
+      <c r="D266" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
+        <f t="shared" si="4"/>
+        <v>Roraima2012</v>
+      </c>
+      <c r="B267" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267">
+        <v>2012</v>
+      </c>
+      <c r="D267" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
+        <f t="shared" si="4"/>
+        <v>Santa_Catarina2012</v>
+      </c>
+      <c r="B268" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268">
+        <v>2012</v>
+      </c>
+      <c r="D268" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
+        <f t="shared" si="4"/>
+        <v>São_Paulo2012</v>
+      </c>
+      <c r="B269" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269">
+        <v>2012</v>
+      </c>
+      <c r="D269" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
+        <f t="shared" si="4"/>
+        <v>Sergipe2012</v>
+      </c>
+      <c r="B270" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270">
+        <v>2012</v>
+      </c>
+      <c r="D270" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
+        <f t="shared" si="4"/>
+        <v>Tocantins2012</v>
+      </c>
+      <c r="B271" t="s">
+        <v>28</v>
+      </c>
+      <c r="C271">
+        <v>2012</v>
+      </c>
+      <c r="D271" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
+        <f t="shared" si="4"/>
+        <v>Acre2013</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272">
+        <v>2013</v>
+      </c>
+      <c r="D272" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
+        <f t="shared" si="4"/>
+        <v>Alagoas2013</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>2013</v>
+      </c>
+      <c r="D273" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
+        <f t="shared" si="4"/>
+        <v>Amapá2013</v>
+      </c>
+      <c r="B274" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274">
+        <v>2013</v>
+      </c>
+      <c r="D274" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
+        <f t="shared" si="4"/>
+        <v>Amazonas2013</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275">
+        <v>2013</v>
+      </c>
+      <c r="D275" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
+        <f t="shared" si="4"/>
+        <v>Bahia2013</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276">
+        <v>2013</v>
+      </c>
+      <c r="D276" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
+        <f t="shared" si="4"/>
+        <v>Ceará2013</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277">
+        <v>2013</v>
+      </c>
+      <c r="D277" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
+        <f t="shared" si="4"/>
+        <v>Distrito_Federal2013</v>
+      </c>
+      <c r="B278" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278">
+        <v>2013</v>
+      </c>
+      <c r="D278" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
+        <f t="shared" si="4"/>
+        <v>Espírito_Santo2013</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279">
+        <v>2013</v>
+      </c>
+      <c r="D279" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
+        <f t="shared" si="4"/>
+        <v>Goiás2013</v>
+      </c>
+      <c r="B280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280">
+        <v>2013</v>
+      </c>
+      <c r="D280" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
+        <f t="shared" si="4"/>
+        <v>Maranhão2013</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281">
+        <v>2013</v>
+      </c>
+      <c r="D281" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
+        <f t="shared" si="4"/>
+        <v>Mato_Grosso2013</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282">
+        <v>2013</v>
+      </c>
+      <c r="D282" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
+        <f t="shared" si="4"/>
+        <v>Mato_Grosso_do_Sul2013</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283">
+        <v>2013</v>
+      </c>
+      <c r="D283" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
+        <f t="shared" si="4"/>
+        <v>Minas_Gerais2013</v>
+      </c>
+      <c r="B284" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284">
+        <v>2013</v>
+      </c>
+      <c r="D284" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
+        <f t="shared" si="4"/>
+        <v>Pará2013</v>
+      </c>
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285">
+        <v>2013</v>
+      </c>
+      <c r="D285" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
+        <f t="shared" si="4"/>
+        <v>Paraíba2013</v>
+      </c>
+      <c r="B286" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286">
+        <v>2013</v>
+      </c>
+      <c r="D286" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
+        <f t="shared" si="4"/>
+        <v>Paraná2013</v>
+      </c>
+      <c r="B287" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287">
+        <v>2013</v>
+      </c>
+      <c r="D287" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
+        <f t="shared" si="4"/>
+        <v>Pernambuco2013</v>
+      </c>
+      <c r="B288" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288">
+        <v>2013</v>
+      </c>
+      <c r="D288" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
+        <f t="shared" si="4"/>
+        <v>Piauí2013</v>
+      </c>
+      <c r="B289" t="s">
+        <v>19</v>
+      </c>
+      <c r="C289">
+        <v>2013</v>
+      </c>
+      <c r="D289" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="str">
+        <f t="shared" si="4"/>
+        <v>Rio_de_Janeiro2013</v>
+      </c>
+      <c r="B290" t="s">
+        <v>20</v>
+      </c>
+      <c r="C290">
+        <v>2013</v>
+      </c>
+      <c r="D290" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="str">
+        <f t="shared" si="4"/>
+        <v>Rio_Grande_do_Norte2013</v>
+      </c>
+      <c r="B291" t="s">
+        <v>21</v>
+      </c>
+      <c r="C291">
+        <v>2013</v>
+      </c>
+      <c r="D291" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
+        <f t="shared" si="4"/>
+        <v>Rio_Grande_do_Sul2013</v>
+      </c>
+      <c r="B292" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292">
+        <v>2013</v>
+      </c>
+      <c r="D292" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
+        <f t="shared" si="4"/>
+        <v>Rondônia2013</v>
+      </c>
+      <c r="B293" t="s">
+        <v>23</v>
+      </c>
+      <c r="C293">
+        <v>2013</v>
+      </c>
+      <c r="D293" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
+        <f t="shared" si="4"/>
+        <v>Roraima2013</v>
+      </c>
+      <c r="B294" t="s">
+        <v>24</v>
+      </c>
+      <c r="C294">
+        <v>2013</v>
+      </c>
+      <c r="D294" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
+        <f t="shared" si="4"/>
+        <v>Santa_Catarina2013</v>
+      </c>
+      <c r="B295" t="s">
+        <v>25</v>
+      </c>
+      <c r="C295">
+        <v>2013</v>
+      </c>
+      <c r="D295" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
+        <f t="shared" si="4"/>
+        <v>São_Paulo2013</v>
+      </c>
+      <c r="B296" t="s">
+        <v>26</v>
+      </c>
+      <c r="C296">
+        <v>2013</v>
+      </c>
+      <c r="D296" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
+        <f t="shared" si="4"/>
+        <v>Sergipe2013</v>
+      </c>
+      <c r="B297" t="s">
+        <v>27</v>
+      </c>
+      <c r="C297">
+        <v>2013</v>
+      </c>
+      <c r="D297" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
+        <f t="shared" si="4"/>
+        <v>Tocantins2013</v>
+      </c>
+      <c r="B298" t="s">
+        <v>28</v>
+      </c>
+      <c r="C298">
+        <v>2013</v>
+      </c>
+      <c r="D298" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
+        <f t="shared" si="4"/>
+        <v>Acre2014</v>
+      </c>
+      <c r="B299" t="s">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <v>2014</v>
+      </c>
+      <c r="D299" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
+        <f t="shared" si="4"/>
+        <v>Alagoas2014</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>2014</v>
+      </c>
+      <c r="D300" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
+        <f t="shared" si="4"/>
+        <v>Amapá2014</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301">
+        <v>2014</v>
+      </c>
+      <c r="D301" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
+        <f t="shared" si="4"/>
+        <v>Amazonas2014</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302">
+        <v>2014</v>
+      </c>
+      <c r="D302" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
+        <f t="shared" si="4"/>
+        <v>Bahia2014</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303">
+        <v>2014</v>
+      </c>
+      <c r="D303" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
+        <f t="shared" si="4"/>
+        <v>Ceará2014</v>
+      </c>
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304">
+        <v>2014</v>
+      </c>
+      <c r="D304" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
+        <f t="shared" si="4"/>
+        <v>Distrito_Federal2014</v>
+      </c>
+      <c r="B305" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305">
+        <v>2014</v>
+      </c>
+      <c r="D305" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
+        <f t="shared" si="4"/>
+        <v>Espírito_Santo2014</v>
+      </c>
+      <c r="B306" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306">
+        <v>2014</v>
+      </c>
+      <c r="D306" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
+        <f t="shared" si="4"/>
+        <v>Goiás2014</v>
+      </c>
+      <c r="B307" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307">
+        <v>2014</v>
+      </c>
+      <c r="D307" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
+        <f t="shared" si="4"/>
+        <v>Maranhão2014</v>
+      </c>
+      <c r="B308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308">
+        <v>2014</v>
+      </c>
+      <c r="D308" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
+        <f t="shared" si="4"/>
+        <v>Mato_Grosso2014</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309">
+        <v>2014</v>
+      </c>
+      <c r="D309" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
+        <f t="shared" si="4"/>
+        <v>Mato_Grosso_do_Sul2014</v>
+      </c>
+      <c r="B310" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310">
+        <v>2014</v>
+      </c>
+      <c r="D310" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
+        <f t="shared" si="4"/>
+        <v>Minas_Gerais2014</v>
+      </c>
+      <c r="B311" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311">
+        <v>2014</v>
+      </c>
+      <c r="D311" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
+        <f t="shared" si="4"/>
+        <v>Pará2014</v>
+      </c>
+      <c r="B312" t="s">
+        <v>15</v>
+      </c>
+      <c r="C312">
+        <v>2014</v>
+      </c>
+      <c r="D312" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
+        <f t="shared" si="4"/>
+        <v>Paraíba2014</v>
+      </c>
+      <c r="B313" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313">
+        <v>2014</v>
+      </c>
+      <c r="D313" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="str">
+        <f t="shared" si="4"/>
+        <v>Paraná2014</v>
+      </c>
+      <c r="B314" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314">
+        <v>2014</v>
+      </c>
+      <c r="D314" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="str">
+        <f t="shared" si="4"/>
+        <v>Pernambuco2014</v>
+      </c>
+      <c r="B315" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315">
+        <v>2014</v>
+      </c>
+      <c r="D315" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
+        <f t="shared" si="4"/>
+        <v>Piauí2014</v>
+      </c>
+      <c r="B316" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316">
+        <v>2014</v>
+      </c>
+      <c r="D316" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
+        <f t="shared" si="4"/>
+        <v>Rio_de_Janeiro2014</v>
+      </c>
+      <c r="B317" t="s">
+        <v>20</v>
+      </c>
+      <c r="C317">
+        <v>2014</v>
+      </c>
+      <c r="D317" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
+        <f t="shared" si="4"/>
+        <v>Rio_Grande_do_Norte2014</v>
+      </c>
+      <c r="B318" t="s">
+        <v>21</v>
+      </c>
+      <c r="C318">
+        <v>2014</v>
+      </c>
+      <c r="D318" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
+        <f t="shared" si="4"/>
+        <v>Rio_Grande_do_Sul2014</v>
+      </c>
+      <c r="B319" t="s">
+        <v>22</v>
+      </c>
+      <c r="C319">
+        <v>2014</v>
+      </c>
+      <c r="D319" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
+        <f t="shared" si="4"/>
+        <v>Rondônia2014</v>
+      </c>
+      <c r="B320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320">
+        <v>2014</v>
+      </c>
+      <c r="D320" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
+        <f t="shared" si="4"/>
+        <v>Roraima2014</v>
+      </c>
+      <c r="B321" t="s">
+        <v>24</v>
+      </c>
+      <c r="C321">
+        <v>2014</v>
+      </c>
+      <c r="D321" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
+        <f t="shared" ref="A322:A385" si="5">SUBSTITUTE(CONCATENATE(B322,C322)," ","_")</f>
+        <v>Santa_Catarina2014</v>
+      </c>
+      <c r="B322" t="s">
+        <v>25</v>
+      </c>
+      <c r="C322">
+        <v>2014</v>
+      </c>
+      <c r="D322" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
+        <f t="shared" si="5"/>
+        <v>São_Paulo2014</v>
+      </c>
+      <c r="B323" t="s">
+        <v>26</v>
+      </c>
+      <c r="C323">
+        <v>2014</v>
+      </c>
+      <c r="D323" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
+        <f t="shared" si="5"/>
+        <v>Sergipe2014</v>
+      </c>
+      <c r="B324" t="s">
+        <v>27</v>
+      </c>
+      <c r="C324">
+        <v>2014</v>
+      </c>
+      <c r="D324" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
+        <f t="shared" si="5"/>
+        <v>Tocantins2014</v>
+      </c>
+      <c r="B325" t="s">
+        <v>28</v>
+      </c>
+      <c r="C325">
+        <v>2014</v>
+      </c>
+      <c r="D325" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
+        <f t="shared" si="5"/>
+        <v>Acre2015</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C326">
         <v>2015</v>
       </c>
-      <c r="C83" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="D326" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
+        <f t="shared" si="5"/>
+        <v>Alagoas2015</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B84">
+      <c r="C327">
         <v>2015</v>
       </c>
-      <c r="C84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="D327" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
+        <f t="shared" si="5"/>
+        <v>Amapá2015</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B85">
+      <c r="C328">
         <v>2015</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D328" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
+        <f t="shared" si="5"/>
+        <v>Amazonas2015</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B86">
+      <c r="C329">
         <v>2015</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D329" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
+        <f t="shared" si="5"/>
+        <v>Bahia2015</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B87">
+      <c r="C330">
         <v>2015</v>
       </c>
-      <c r="C87" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="D330" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
+        <f t="shared" si="5"/>
+        <v>Ceará2015</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B88">
+      <c r="C331">
         <v>2015</v>
       </c>
-      <c r="C88" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="D331" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
+        <f t="shared" si="5"/>
+        <v>Distrito_Federal2015</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B89">
+      <c r="C332">
         <v>2015</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D332" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
+        <f t="shared" si="5"/>
+        <v>Espírito_Santo2015</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B90">
+      <c r="C333">
         <v>2015</v>
       </c>
-      <c r="C90" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="D333" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
+        <f t="shared" si="5"/>
+        <v>Goiás2015</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B91">
+      <c r="C334">
         <v>2015</v>
       </c>
-      <c r="C91" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="D334" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
+        <f t="shared" si="5"/>
+        <v>Maranhão2015</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B92">
+      <c r="C335">
         <v>2015</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D335" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
+        <f t="shared" si="5"/>
+        <v>Mato_Grosso2015</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B93">
+      <c r="C336">
         <v>2015</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D336" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
+        <f t="shared" si="5"/>
+        <v>Mato_Grosso_do_Sul2015</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B94">
+      <c r="C337">
         <v>2015</v>
       </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="D337" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
+        <f t="shared" si="5"/>
+        <v>Minas_Gerais2015</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B95">
+      <c r="C338">
         <v>2015</v>
       </c>
-      <c r="C95" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="D338" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
+        <f t="shared" si="5"/>
+        <v>Pará2015</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B96">
+      <c r="C339">
         <v>2015</v>
       </c>
-      <c r="C96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="D339" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
+        <f t="shared" si="5"/>
+        <v>Paraíba2015</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B97">
+      <c r="C340">
         <v>2015</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D340" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
+        <f t="shared" si="5"/>
+        <v>Paraná2015</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B98">
+      <c r="C341">
         <v>2015</v>
       </c>
-      <c r="C98" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="D341" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f t="shared" si="5"/>
+        <v>Pernambuco2015</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B99">
+      <c r="C342">
         <v>2015</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D342" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f t="shared" si="5"/>
+        <v>Piauí2015</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B100">
+      <c r="C343">
         <v>2015</v>
       </c>
-      <c r="C100" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="D343" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f t="shared" si="5"/>
+        <v>Rio_de_Janeiro2015</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B101">
+      <c r="C344">
         <v>2015</v>
       </c>
-      <c r="C101" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="D344" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f t="shared" si="5"/>
+        <v>Rio_Grande_do_Norte2015</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B102">
+      <c r="C345">
         <v>2015</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D345" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f t="shared" si="5"/>
+        <v>Rio_Grande_do_Sul2015</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B103">
+      <c r="C346">
         <v>2015</v>
       </c>
-      <c r="C103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="D346" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f t="shared" si="5"/>
+        <v>Rondônia2015</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B104">
+      <c r="C347">
         <v>2015</v>
       </c>
-      <c r="C104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="D347" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f t="shared" si="5"/>
+        <v>Roraima2015</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B105">
+      <c r="C348">
         <v>2015</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D348" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f t="shared" si="5"/>
+        <v>Santa_Catarina2015</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B106">
+      <c r="C349">
         <v>2015</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D349" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f t="shared" si="5"/>
+        <v>São_Paulo2015</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B107">
+      <c r="C350">
         <v>2015</v>
       </c>
-      <c r="C107" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="D350" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f t="shared" si="5"/>
+        <v>Sergipe2015</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B108">
+      <c r="C351">
         <v>2015</v>
       </c>
-      <c r="C108" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="D351" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f t="shared" si="5"/>
+        <v>Tocantins2015</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B109">
+      <c r="C352">
         <v>2015</v>
       </c>
-      <c r="C109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="D352" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f t="shared" si="5"/>
+        <v>Acre2016</v>
+      </c>
+      <c r="B353" t="s">
         <v>2</v>
       </c>
-      <c r="B110">
+      <c r="C353">
+        <v>2016</v>
+      </c>
+      <c r="D353" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f t="shared" si="5"/>
+        <v>Alagoas2016</v>
+      </c>
+      <c r="B354" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <v>2016</v>
+      </c>
+      <c r="D354" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f t="shared" si="5"/>
+        <v>Amapá2016</v>
+      </c>
+      <c r="B355" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355">
+        <v>2016</v>
+      </c>
+      <c r="D355" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f t="shared" si="5"/>
+        <v>Amazonas2016</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356">
+        <v>2016</v>
+      </c>
+      <c r="D356" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f t="shared" si="5"/>
+        <v>Bahia2016</v>
+      </c>
+      <c r="B357" t="s">
+        <v>6</v>
+      </c>
+      <c r="C357">
+        <v>2016</v>
+      </c>
+      <c r="D357" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f t="shared" si="5"/>
+        <v>Ceará2016</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358">
+        <v>2016</v>
+      </c>
+      <c r="D358" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f t="shared" si="5"/>
+        <v>Distrito_Federal2016</v>
+      </c>
+      <c r="B359" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359">
+        <v>2016</v>
+      </c>
+      <c r="D359" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f t="shared" si="5"/>
+        <v>Espírito_Santo2016</v>
+      </c>
+      <c r="B360" t="s">
+        <v>9</v>
+      </c>
+      <c r="C360">
+        <v>2016</v>
+      </c>
+      <c r="D360" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f t="shared" si="5"/>
+        <v>Goiás2016</v>
+      </c>
+      <c r="B361" t="s">
+        <v>10</v>
+      </c>
+      <c r="C361">
+        <v>2016</v>
+      </c>
+      <c r="D361" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f t="shared" si="5"/>
+        <v>Maranhão2016</v>
+      </c>
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362">
+        <v>2016</v>
+      </c>
+      <c r="D362" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f t="shared" si="5"/>
+        <v>Mato_Grosso2016</v>
+      </c>
+      <c r="B363" t="s">
+        <v>12</v>
+      </c>
+      <c r="C363">
+        <v>2016</v>
+      </c>
+      <c r="D363" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f t="shared" si="5"/>
+        <v>Mato_Grosso_do_Sul2016</v>
+      </c>
+      <c r="B364" t="s">
+        <v>13</v>
+      </c>
+      <c r="C364">
+        <v>2016</v>
+      </c>
+      <c r="D364" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f t="shared" si="5"/>
+        <v>Minas_Gerais2016</v>
+      </c>
+      <c r="B365" t="s">
+        <v>14</v>
+      </c>
+      <c r="C365">
+        <v>2016</v>
+      </c>
+      <c r="D365" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f t="shared" si="5"/>
+        <v>Pará2016</v>
+      </c>
+      <c r="B366" t="s">
+        <v>15</v>
+      </c>
+      <c r="C366">
+        <v>2016</v>
+      </c>
+      <c r="D366" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f t="shared" si="5"/>
+        <v>Paraíba2016</v>
+      </c>
+      <c r="B367" t="s">
+        <v>16</v>
+      </c>
+      <c r="C367">
+        <v>2016</v>
+      </c>
+      <c r="D367" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f t="shared" si="5"/>
+        <v>Paraná2016</v>
+      </c>
+      <c r="B368" t="s">
+        <v>17</v>
+      </c>
+      <c r="C368">
+        <v>2016</v>
+      </c>
+      <c r="D368" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f t="shared" si="5"/>
+        <v>Pernambuco2016</v>
+      </c>
+      <c r="B369" t="s">
+        <v>18</v>
+      </c>
+      <c r="C369">
+        <v>2016</v>
+      </c>
+      <c r="D369" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f t="shared" si="5"/>
+        <v>Piauí2016</v>
+      </c>
+      <c r="B370" t="s">
+        <v>19</v>
+      </c>
+      <c r="C370">
+        <v>2016</v>
+      </c>
+      <c r="D370" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f t="shared" si="5"/>
+        <v>Rio_de_Janeiro2016</v>
+      </c>
+      <c r="B371" t="s">
+        <v>20</v>
+      </c>
+      <c r="C371">
+        <v>2016</v>
+      </c>
+      <c r="D371" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f t="shared" si="5"/>
+        <v>Rio_Grande_do_Norte2016</v>
+      </c>
+      <c r="B372" t="s">
+        <v>21</v>
+      </c>
+      <c r="C372">
+        <v>2016</v>
+      </c>
+      <c r="D372" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f t="shared" si="5"/>
+        <v>Rio_Grande_do_Sul2016</v>
+      </c>
+      <c r="B373" t="s">
+        <v>22</v>
+      </c>
+      <c r="C373">
+        <v>2016</v>
+      </c>
+      <c r="D373" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f t="shared" si="5"/>
+        <v>Rondônia2016</v>
+      </c>
+      <c r="B374" t="s">
+        <v>23</v>
+      </c>
+      <c r="C374">
+        <v>2016</v>
+      </c>
+      <c r="D374" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f t="shared" si="5"/>
+        <v>Roraima2016</v>
+      </c>
+      <c r="B375" t="s">
+        <v>24</v>
+      </c>
+      <c r="C375">
+        <v>2016</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f t="shared" si="5"/>
+        <v>Santa_Catarina2016</v>
+      </c>
+      <c r="B376" t="s">
+        <v>25</v>
+      </c>
+      <c r="C376">
+        <v>2016</v>
+      </c>
+      <c r="D376" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f t="shared" si="5"/>
+        <v>São_Paulo2016</v>
+      </c>
+      <c r="B377" t="s">
+        <v>26</v>
+      </c>
+      <c r="C377">
+        <v>2016</v>
+      </c>
+      <c r="D377" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f t="shared" si="5"/>
+        <v>Sergipe2016</v>
+      </c>
+      <c r="B378" t="s">
+        <v>27</v>
+      </c>
+      <c r="C378">
+        <v>2016</v>
+      </c>
+      <c r="D378" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f t="shared" si="5"/>
+        <v>Tocantins2016</v>
+      </c>
+      <c r="B379" t="s">
+        <v>28</v>
+      </c>
+      <c r="C379">
+        <v>2016</v>
+      </c>
+      <c r="D379" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f t="shared" si="5"/>
+        <v>Acre2017</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2</v>
+      </c>
+      <c r="C380">
+        <v>2017</v>
+      </c>
+      <c r="D380" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f t="shared" si="5"/>
+        <v>Alagoas2017</v>
+      </c>
+      <c r="B381" t="s">
+        <v>3</v>
+      </c>
+      <c r="C381">
+        <v>2017</v>
+      </c>
+      <c r="D381" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f t="shared" si="5"/>
+        <v>Amapá2017</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382">
+        <v>2017</v>
+      </c>
+      <c r="D382" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f t="shared" si="5"/>
+        <v>Amazonas2017</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383">
+        <v>2017</v>
+      </c>
+      <c r="D383" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f t="shared" si="5"/>
+        <v>Bahia2017</v>
+      </c>
+      <c r="B384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384">
+        <v>2017</v>
+      </c>
+      <c r="D384" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f t="shared" si="5"/>
+        <v>Ceará2017</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385">
+        <v>2017</v>
+      </c>
+      <c r="D385" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f t="shared" ref="A386:A449" si="6">SUBSTITUTE(CONCATENATE(B386,C386)," ","_")</f>
+        <v>Distrito_Federal2017</v>
+      </c>
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386">
+        <v>2017</v>
+      </c>
+      <c r="D386" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f t="shared" si="6"/>
+        <v>Espírito_Santo2017</v>
+      </c>
+      <c r="B387" t="s">
+        <v>9</v>
+      </c>
+      <c r="C387">
+        <v>2017</v>
+      </c>
+      <c r="D387" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f t="shared" si="6"/>
+        <v>Goiás2017</v>
+      </c>
+      <c r="B388" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388">
+        <v>2017</v>
+      </c>
+      <c r="D388" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f t="shared" si="6"/>
+        <v>Maranhão2017</v>
+      </c>
+      <c r="B389" t="s">
+        <v>11</v>
+      </c>
+      <c r="C389">
+        <v>2017</v>
+      </c>
+      <c r="D389" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f t="shared" si="6"/>
+        <v>Mato_Grosso2017</v>
+      </c>
+      <c r="B390" t="s">
+        <v>12</v>
+      </c>
+      <c r="C390">
+        <v>2017</v>
+      </c>
+      <c r="D390" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f t="shared" si="6"/>
+        <v>Mato_Grosso_do_Sul2017</v>
+      </c>
+      <c r="B391" t="s">
+        <v>13</v>
+      </c>
+      <c r="C391">
+        <v>2017</v>
+      </c>
+      <c r="D391" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f t="shared" si="6"/>
+        <v>Minas_Gerais2017</v>
+      </c>
+      <c r="B392" t="s">
+        <v>14</v>
+      </c>
+      <c r="C392">
+        <v>2017</v>
+      </c>
+      <c r="D392" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f t="shared" si="6"/>
+        <v>Pará2017</v>
+      </c>
+      <c r="B393" t="s">
+        <v>15</v>
+      </c>
+      <c r="C393">
+        <v>2017</v>
+      </c>
+      <c r="D393" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f t="shared" si="6"/>
+        <v>Paraíba2017</v>
+      </c>
+      <c r="B394" t="s">
+        <v>16</v>
+      </c>
+      <c r="C394">
+        <v>2017</v>
+      </c>
+      <c r="D394" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f t="shared" si="6"/>
+        <v>Paraná2017</v>
+      </c>
+      <c r="B395" t="s">
+        <v>17</v>
+      </c>
+      <c r="C395">
+        <v>2017</v>
+      </c>
+      <c r="D395" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f t="shared" si="6"/>
+        <v>Pernambuco2017</v>
+      </c>
+      <c r="B396" t="s">
+        <v>18</v>
+      </c>
+      <c r="C396">
+        <v>2017</v>
+      </c>
+      <c r="D396" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f t="shared" si="6"/>
+        <v>Piauí2017</v>
+      </c>
+      <c r="B397" t="s">
+        <v>19</v>
+      </c>
+      <c r="C397">
+        <v>2017</v>
+      </c>
+      <c r="D397" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f t="shared" si="6"/>
+        <v>Rio_de_Janeiro2017</v>
+      </c>
+      <c r="B398" t="s">
+        <v>20</v>
+      </c>
+      <c r="C398">
+        <v>2017</v>
+      </c>
+      <c r="D398" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f t="shared" si="6"/>
+        <v>Rio_Grande_do_Norte2017</v>
+      </c>
+      <c r="B399" t="s">
+        <v>21</v>
+      </c>
+      <c r="C399">
+        <v>2017</v>
+      </c>
+      <c r="D399" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f t="shared" si="6"/>
+        <v>Rio_Grande_do_Sul2017</v>
+      </c>
+      <c r="B400" t="s">
+        <v>22</v>
+      </c>
+      <c r="C400">
+        <v>2017</v>
+      </c>
+      <c r="D400" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f t="shared" si="6"/>
+        <v>Rondônia2017</v>
+      </c>
+      <c r="B401" t="s">
+        <v>23</v>
+      </c>
+      <c r="C401">
+        <v>2017</v>
+      </c>
+      <c r="D401" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f t="shared" si="6"/>
+        <v>Roraima2017</v>
+      </c>
+      <c r="B402" t="s">
+        <v>24</v>
+      </c>
+      <c r="C402">
+        <v>2017</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f t="shared" si="6"/>
+        <v>Santa_Catarina2017</v>
+      </c>
+      <c r="B403" t="s">
+        <v>25</v>
+      </c>
+      <c r="C403">
+        <v>2017</v>
+      </c>
+      <c r="D403" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f t="shared" si="6"/>
+        <v>São_Paulo2017</v>
+      </c>
+      <c r="B404" t="s">
+        <v>26</v>
+      </c>
+      <c r="C404">
+        <v>2017</v>
+      </c>
+      <c r="D404" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f t="shared" si="6"/>
+        <v>Sergipe2017</v>
+      </c>
+      <c r="B405" t="s">
+        <v>27</v>
+      </c>
+      <c r="C405">
+        <v>2017</v>
+      </c>
+      <c r="D405" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f t="shared" si="6"/>
+        <v>Tocantins2017</v>
+      </c>
+      <c r="B406" t="s">
+        <v>28</v>
+      </c>
+      <c r="C406">
+        <v>2017</v>
+      </c>
+      <c r="D406" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f t="shared" si="6"/>
+        <v>Acre2018</v>
+      </c>
+      <c r="B407" t="s">
+        <v>2</v>
+      </c>
+      <c r="C407">
+        <v>2018</v>
+      </c>
+      <c r="D407" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f t="shared" si="6"/>
+        <v>Alagoas2018</v>
+      </c>
+      <c r="B408" t="s">
+        <v>3</v>
+      </c>
+      <c r="C408">
+        <v>2018</v>
+      </c>
+      <c r="D408" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f t="shared" si="6"/>
+        <v>Amapá2018</v>
+      </c>
+      <c r="B409" t="s">
+        <v>4</v>
+      </c>
+      <c r="C409">
+        <v>2018</v>
+      </c>
+      <c r="D409" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f t="shared" si="6"/>
+        <v>Amazonas2018</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410">
+        <v>2018</v>
+      </c>
+      <c r="D410" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f t="shared" si="6"/>
+        <v>Bahia2018</v>
+      </c>
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411">
+        <v>2018</v>
+      </c>
+      <c r="D411" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f t="shared" si="6"/>
+        <v>Ceará2018</v>
+      </c>
+      <c r="B412" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412">
+        <v>2018</v>
+      </c>
+      <c r="D412" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f t="shared" si="6"/>
+        <v>Distrito_Federal2018</v>
+      </c>
+      <c r="B413" t="s">
+        <v>8</v>
+      </c>
+      <c r="C413">
+        <v>2018</v>
+      </c>
+      <c r="D413" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f t="shared" si="6"/>
+        <v>Espírito_Santo2018</v>
+      </c>
+      <c r="B414" t="s">
+        <v>9</v>
+      </c>
+      <c r="C414">
+        <v>2018</v>
+      </c>
+      <c r="D414" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f t="shared" si="6"/>
+        <v>Goiás2018</v>
+      </c>
+      <c r="B415" t="s">
+        <v>10</v>
+      </c>
+      <c r="C415">
+        <v>2018</v>
+      </c>
+      <c r="D415" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f t="shared" si="6"/>
+        <v>Maranhão2018</v>
+      </c>
+      <c r="B416" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416">
+        <v>2018</v>
+      </c>
+      <c r="D416" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f t="shared" si="6"/>
+        <v>Mato_Grosso2018</v>
+      </c>
+      <c r="B417" t="s">
+        <v>12</v>
+      </c>
+      <c r="C417">
+        <v>2018</v>
+      </c>
+      <c r="D417" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f t="shared" si="6"/>
+        <v>Mato_Grosso_do_Sul2018</v>
+      </c>
+      <c r="B418" t="s">
+        <v>13</v>
+      </c>
+      <c r="C418">
+        <v>2018</v>
+      </c>
+      <c r="D418" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f t="shared" si="6"/>
+        <v>Minas_Gerais2018</v>
+      </c>
+      <c r="B419" t="s">
+        <v>14</v>
+      </c>
+      <c r="C419">
+        <v>2018</v>
+      </c>
+      <c r="D419" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f t="shared" si="6"/>
+        <v>Pará2018</v>
+      </c>
+      <c r="B420" t="s">
+        <v>15</v>
+      </c>
+      <c r="C420">
+        <v>2018</v>
+      </c>
+      <c r="D420" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f t="shared" si="6"/>
+        <v>Paraíba2018</v>
+      </c>
+      <c r="B421" t="s">
+        <v>16</v>
+      </c>
+      <c r="C421">
+        <v>2018</v>
+      </c>
+      <c r="D421" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f t="shared" si="6"/>
+        <v>Paraná2018</v>
+      </c>
+      <c r="B422" t="s">
+        <v>17</v>
+      </c>
+      <c r="C422">
+        <v>2018</v>
+      </c>
+      <c r="D422" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f t="shared" si="6"/>
+        <v>Pernambuco2018</v>
+      </c>
+      <c r="B423" t="s">
+        <v>18</v>
+      </c>
+      <c r="C423">
+        <v>2018</v>
+      </c>
+      <c r="D423" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f t="shared" si="6"/>
+        <v>Piauí2018</v>
+      </c>
+      <c r="B424" t="s">
+        <v>19</v>
+      </c>
+      <c r="C424">
+        <v>2018</v>
+      </c>
+      <c r="D424" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f t="shared" si="6"/>
+        <v>Rio_de_Janeiro2018</v>
+      </c>
+      <c r="B425" t="s">
+        <v>20</v>
+      </c>
+      <c r="C425">
+        <v>2018</v>
+      </c>
+      <c r="D425" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f t="shared" si="6"/>
+        <v>Rio_Grande_do_Norte2018</v>
+      </c>
+      <c r="B426" t="s">
+        <v>21</v>
+      </c>
+      <c r="C426">
+        <v>2018</v>
+      </c>
+      <c r="D426" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f t="shared" si="6"/>
+        <v>Rio_Grande_do_Sul2018</v>
+      </c>
+      <c r="B427" t="s">
+        <v>22</v>
+      </c>
+      <c r="C427">
+        <v>2018</v>
+      </c>
+      <c r="D427" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f t="shared" si="6"/>
+        <v>Rondônia2018</v>
+      </c>
+      <c r="B428" t="s">
+        <v>23</v>
+      </c>
+      <c r="C428">
+        <v>2018</v>
+      </c>
+      <c r="D428" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f t="shared" si="6"/>
+        <v>Roraima2018</v>
+      </c>
+      <c r="B429" t="s">
+        <v>24</v>
+      </c>
+      <c r="C429">
+        <v>2018</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f t="shared" si="6"/>
+        <v>Santa_Catarina2018</v>
+      </c>
+      <c r="B430" t="s">
+        <v>25</v>
+      </c>
+      <c r="C430">
+        <v>2018</v>
+      </c>
+      <c r="D430" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f t="shared" si="6"/>
+        <v>São_Paulo2018</v>
+      </c>
+      <c r="B431" t="s">
+        <v>26</v>
+      </c>
+      <c r="C431">
+        <v>2018</v>
+      </c>
+      <c r="D431" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f t="shared" si="6"/>
+        <v>Sergipe2018</v>
+      </c>
+      <c r="B432" t="s">
+        <v>27</v>
+      </c>
+      <c r="C432">
+        <v>2018</v>
+      </c>
+      <c r="D432" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="str">
+        <f t="shared" si="6"/>
+        <v>Tocantins2018</v>
+      </c>
+      <c r="B433" t="s">
+        <v>28</v>
+      </c>
+      <c r="C433">
+        <v>2018</v>
+      </c>
+      <c r="D433" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="str">
+        <f t="shared" si="6"/>
+        <v>Acre2019</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C434">
         <v>2019</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D434" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="str">
+        <f t="shared" si="6"/>
+        <v>Alagoas2019</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B111">
+      <c r="C435">
         <v>2019</v>
       </c>
-      <c r="C111" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="D435" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="str">
+        <f t="shared" si="6"/>
+        <v>Amapá2019</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B112">
+      <c r="C436">
         <v>2019</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D436" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="str">
+        <f t="shared" si="6"/>
+        <v>Amazonas2019</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B113">
+      <c r="C437">
         <v>2019</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D437" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="str">
+        <f t="shared" si="6"/>
+        <v>Bahia2019</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B114">
+      <c r="C438">
         <v>2019</v>
       </c>
-      <c r="C114" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="D438" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="str">
+        <f t="shared" si="6"/>
+        <v>Ceará2019</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B115">
+      <c r="C439">
         <v>2019</v>
       </c>
-      <c r="C115" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="D439" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="str">
+        <f t="shared" si="6"/>
+        <v>Distrito_Federal2019</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B116">
+      <c r="C440">
         <v>2019</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D440" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="str">
+        <f t="shared" si="6"/>
+        <v>Espírito_Santo2019</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B117">
+      <c r="C441">
         <v>2019</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D441" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="str">
+        <f t="shared" si="6"/>
+        <v>Goiás2019</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B118">
+      <c r="C442">
         <v>2019</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D442" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="str">
+        <f t="shared" si="6"/>
+        <v>Maranhão2019</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B119">
+      <c r="C443">
         <v>2019</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D443" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="str">
+        <f t="shared" si="6"/>
+        <v>Mato_Grosso2019</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B120">
+      <c r="C444">
         <v>2019</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D444" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="str">
+        <f t="shared" si="6"/>
+        <v>Mato_Grosso_do_Sul2019</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B121">
+      <c r="C445">
         <v>2019</v>
       </c>
-      <c r="C121" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="D445" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="str">
+        <f t="shared" si="6"/>
+        <v>Minas_Gerais2019</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B122">
+      <c r="C446">
         <v>2019</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D446" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="str">
+        <f t="shared" si="6"/>
+        <v>Pará2019</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B123">
+      <c r="C447">
         <v>2019</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D447" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="str">
+        <f t="shared" si="6"/>
+        <v>Paraíba2019</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B124">
+      <c r="C448">
         <v>2019</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D448" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="str">
+        <f t="shared" si="6"/>
+        <v>Paraná2019</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B125">
+      <c r="C449">
         <v>2019</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D449" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="str">
+        <f t="shared" ref="A450:A487" si="7">SUBSTITUTE(CONCATENATE(B450,C450)," ","_")</f>
+        <v>Pernambuco2019</v>
+      </c>
+      <c r="B450" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B126">
+      <c r="C450">
         <v>2019</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D450" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="str">
+        <f t="shared" si="7"/>
+        <v>Piauí2019</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B127">
+      <c r="C451">
         <v>2019</v>
       </c>
-      <c r="C127" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="D451" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="str">
+        <f t="shared" si="7"/>
+        <v>Rio_de_Janeiro2019</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B128">
+      <c r="C452">
         <v>2019</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D452" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="str">
+        <f t="shared" si="7"/>
+        <v>Rio_Grande_do_Norte2019</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B129">
+      <c r="C453">
         <v>2019</v>
       </c>
-      <c r="C129" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="D453" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="str">
+        <f t="shared" si="7"/>
+        <v>Rio_Grande_do_Sul2019</v>
+      </c>
+      <c r="B454" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B130">
+      <c r="C454">
         <v>2019</v>
       </c>
-      <c r="C130" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="D454" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="str">
+        <f t="shared" si="7"/>
+        <v>Rondônia2019</v>
+      </c>
+      <c r="B455" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B131">
+      <c r="C455">
         <v>2019</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D455" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="str">
+        <f t="shared" si="7"/>
+        <v>Roraima2019</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B132">
+      <c r="C456">
         <v>2019</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D456" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="str">
+        <f t="shared" si="7"/>
+        <v>Santa_Catarina2019</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B133">
+      <c r="C457">
         <v>2019</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D457" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="str">
+        <f t="shared" si="7"/>
+        <v>São_Paulo2019</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B134">
+      <c r="C458">
         <v>2019</v>
       </c>
-      <c r="C134" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="D458" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="str">
+        <f t="shared" si="7"/>
+        <v>Sergipe2019</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B135">
+      <c r="C459">
         <v>2019</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D459" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="str">
+        <f t="shared" si="7"/>
+        <v>Tocantins2019</v>
+      </c>
+      <c r="B460" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B136">
+      <c r="C460">
         <v>2019</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D460" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="str">
+        <f t="shared" si="7"/>
+        <v>Acre2020</v>
+      </c>
+      <c r="B461" t="s">
+        <v>2</v>
+      </c>
+      <c r="C461">
+        <v>2020</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="str">
+        <f t="shared" si="7"/>
+        <v>Alagoas2020</v>
+      </c>
+      <c r="B462" t="s">
+        <v>3</v>
+      </c>
+      <c r="C462">
+        <v>2020</v>
+      </c>
+      <c r="D462" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" t="str">
+        <f t="shared" si="7"/>
+        <v>Amapá2020</v>
+      </c>
+      <c r="B463" t="s">
+        <v>4</v>
+      </c>
+      <c r="C463">
+        <v>2020</v>
+      </c>
+      <c r="D463" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="str">
+        <f t="shared" si="7"/>
+        <v>Amazonas2020</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464">
+        <v>2020</v>
+      </c>
+      <c r="D464" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="str">
+        <f t="shared" si="7"/>
+        <v>Bahia2020</v>
+      </c>
+      <c r="B465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465">
+        <v>2020</v>
+      </c>
+      <c r="D465" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="str">
+        <f t="shared" si="7"/>
+        <v>Ceará2020</v>
+      </c>
+      <c r="B466" t="s">
+        <v>7</v>
+      </c>
+      <c r="C466">
+        <v>2020</v>
+      </c>
+      <c r="D466" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="str">
+        <f t="shared" si="7"/>
+        <v>Distrito_Federal2020</v>
+      </c>
+      <c r="B467" t="s">
+        <v>8</v>
+      </c>
+      <c r="C467">
+        <v>2020</v>
+      </c>
+      <c r="D467" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="str">
+        <f t="shared" si="7"/>
+        <v>Espírito_Santo2020</v>
+      </c>
+      <c r="B468" t="s">
+        <v>9</v>
+      </c>
+      <c r="C468">
+        <v>2020</v>
+      </c>
+      <c r="D468" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="str">
+        <f t="shared" si="7"/>
+        <v>Goiás2020</v>
+      </c>
+      <c r="B469" t="s">
+        <v>10</v>
+      </c>
+      <c r="C469">
+        <v>2020</v>
+      </c>
+      <c r="D469" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="str">
+        <f t="shared" si="7"/>
+        <v>Maranhão2020</v>
+      </c>
+      <c r="B470" t="s">
+        <v>11</v>
+      </c>
+      <c r="C470">
+        <v>2020</v>
+      </c>
+      <c r="D470" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="str">
+        <f t="shared" si="7"/>
+        <v>Mato_Grosso2020</v>
+      </c>
+      <c r="B471" t="s">
+        <v>12</v>
+      </c>
+      <c r="C471">
+        <v>2020</v>
+      </c>
+      <c r="D471" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="str">
+        <f t="shared" si="7"/>
+        <v>Mato_Grosso_do_Sul2020</v>
+      </c>
+      <c r="B472" t="s">
+        <v>13</v>
+      </c>
+      <c r="C472">
+        <v>2020</v>
+      </c>
+      <c r="D472" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="str">
+        <f t="shared" si="7"/>
+        <v>Minas_Gerais2020</v>
+      </c>
+      <c r="B473" t="s">
+        <v>14</v>
+      </c>
+      <c r="C473">
+        <v>2020</v>
+      </c>
+      <c r="D473" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="str">
+        <f t="shared" si="7"/>
+        <v>Pará2020</v>
+      </c>
+      <c r="B474" t="s">
+        <v>15</v>
+      </c>
+      <c r="C474">
+        <v>2020</v>
+      </c>
+      <c r="D474" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="str">
+        <f t="shared" si="7"/>
+        <v>Paraíba2020</v>
+      </c>
+      <c r="B475" t="s">
+        <v>16</v>
+      </c>
+      <c r="C475">
+        <v>2020</v>
+      </c>
+      <c r="D475" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="str">
+        <f t="shared" si="7"/>
+        <v>Paraná2020</v>
+      </c>
+      <c r="B476" t="s">
+        <v>17</v>
+      </c>
+      <c r="C476">
+        <v>2020</v>
+      </c>
+      <c r="D476" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="str">
+        <f t="shared" si="7"/>
+        <v>Pernambuco2020</v>
+      </c>
+      <c r="B477" t="s">
+        <v>18</v>
+      </c>
+      <c r="C477">
+        <v>2020</v>
+      </c>
+      <c r="D477" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="str">
+        <f t="shared" si="7"/>
+        <v>Piauí2020</v>
+      </c>
+      <c r="B478" t="s">
+        <v>19</v>
+      </c>
+      <c r="C478">
+        <v>2020</v>
+      </c>
+      <c r="D478" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="str">
+        <f t="shared" si="7"/>
+        <v>Rio_de_Janeiro2020</v>
+      </c>
+      <c r="B479" t="s">
+        <v>20</v>
+      </c>
+      <c r="C479">
+        <v>2020</v>
+      </c>
+      <c r="D479" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="str">
+        <f t="shared" si="7"/>
+        <v>Rio_Grande_do_Norte2020</v>
+      </c>
+      <c r="B480" t="s">
+        <v>21</v>
+      </c>
+      <c r="C480">
+        <v>2020</v>
+      </c>
+      <c r="D480" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="str">
+        <f t="shared" si="7"/>
+        <v>Rio_Grande_do_Sul2020</v>
+      </c>
+      <c r="B481" t="s">
+        <v>22</v>
+      </c>
+      <c r="C481">
+        <v>2020</v>
+      </c>
+      <c r="D481" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="str">
+        <f t="shared" si="7"/>
+        <v>Rondônia2020</v>
+      </c>
+      <c r="B482" t="s">
+        <v>23</v>
+      </c>
+      <c r="C482">
+        <v>2020</v>
+      </c>
+      <c r="D482" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="str">
+        <f t="shared" si="7"/>
+        <v>Roraima2020</v>
+      </c>
+      <c r="B483" t="s">
+        <v>24</v>
+      </c>
+      <c r="C483">
+        <v>2020</v>
+      </c>
+      <c r="D483" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="str">
+        <f t="shared" si="7"/>
+        <v>Santa_Catarina2020</v>
+      </c>
+      <c r="B484" t="s">
+        <v>25</v>
+      </c>
+      <c r="C484">
+        <v>2020</v>
+      </c>
+      <c r="D484" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="str">
+        <f t="shared" si="7"/>
+        <v>São_Paulo2020</v>
+      </c>
+      <c r="B485" t="s">
+        <v>26</v>
+      </c>
+      <c r="C485">
+        <v>2020</v>
+      </c>
+      <c r="D485" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="str">
+        <f t="shared" si="7"/>
+        <v>Sergipe2020</v>
+      </c>
+      <c r="B486" t="s">
+        <v>27</v>
+      </c>
+      <c r="C486">
+        <v>2020</v>
+      </c>
+      <c r="D486" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="str">
+        <f t="shared" si="7"/>
+        <v>Tocantins2020</v>
+      </c>
+      <c r="B487" t="s">
+        <v>28</v>
+      </c>
+      <c r="C487">
+        <v>2020</v>
+      </c>
+      <c r="D487" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Excel/Pasta1.xlsx
+++ b/Excel/Pasta1.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:AD487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
